--- a/Unit Testing/Unit Testing.xlsx
+++ b/Unit Testing/Unit Testing.xlsx
@@ -30,9 +30,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>The I'm intersted marker is not geeting cleared when we change the routes</t>
-  </si>
-  <si>
     <t>Rider</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>The I'm interested marker is not getting cleared when we change the routes</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +84,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,11 +101,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -109,9 +115,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -119,10 +127,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,8 +141,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="S.No" dataDxfId="1"/>
-    <tableColumn id="2" name="Statement" dataDxfId="2"/>
+    <tableColumn id="1" name="S.No" dataDxfId="2"/>
+    <tableColumn id="2" name="Statement" dataDxfId="1"/>
     <tableColumn id="3" name="App" dataDxfId="0"/>
     <tableColumn id="4" name="Status"/>
   </tableColumns>
@@ -430,7 +438,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,22 +467,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -483,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -495,34 +503,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="3"/>
     </row>

--- a/Unit Testing/Unit Testing.xlsx
+++ b/Unit Testing/Unit Testing.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,7 +496,7 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
